--- a/2021_kidarifund_dataset_after.xlsx
+++ b/2021_kidarifund_dataset_after.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김예지\Desktop\키다리은행\TF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khb72\OneDrive\바탕 화면\대학교\3학년\1학기\키다리\금융심사자동화\최종데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
